--- a/ErsarSecuriteEmployers/Fiche.xlsx
+++ b/ErsarSecuriteEmployers/Fiche.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halfshield\Desktop\er services liste des employées\ErsarService\ErsarSecuriteEmployers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Halfshield\Github\ErsarEmloyer\ErsasService\ErsarSecuriteEmployers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A1B7E-2E76-4F51-A73F-C67DB1F502E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDB9A2-4EBE-45F3-AB3C-67BC174E52D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DOSSIER PERSONNEL</t>
   </si>
@@ -59,15 +59,12 @@
   <si>
     <t xml:space="preserve">N° de Matricul : </t>
   </si>
-  <si>
-    <t>0245</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +110,49 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF01A7FF"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF01A7FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF01A7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -211,17 +241,82 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color theme="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color theme="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -229,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -238,55 +333,156 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,6 +490,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF01A7FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -310,15 +511,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>360806</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>27542</xdr:rowOff>
+      <xdr:colOff>168011</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>27544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>340689</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>181532</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476899</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>64267</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -346,8 +547,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="581143" y="449855"/>
-          <a:ext cx="3009522" cy="1632087"/>
+          <a:off x="388348" y="238701"/>
+          <a:ext cx="3944455" cy="2139108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -359,15 +560,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>515573</xdr:colOff>
+      <xdr:colOff>521040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>67634</xdr:rowOff>
+      <xdr:rowOff>73101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>490942</xdr:colOff>
+      <xdr:colOff>485474</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>88906</xdr:rowOff>
+      <xdr:rowOff>83438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -395,13 +596,12 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4986585" y="489947"/>
-          <a:ext cx="1499369" cy="1499369"/>
+          <a:off x="4992052" y="495414"/>
+          <a:ext cx="1488434" cy="1488434"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -684,10 +884,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40:K43"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +901,7 @@
     <col min="14" max="14" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -717,7 +917,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -729,13 +929,13 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -745,13 +945,13 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="8"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -761,13 +961,13 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="8"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -777,13 +977,13 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="8"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -793,13 +993,13 @@
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="8"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="26"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -809,13 +1009,15 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="8"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -825,45 +1027,51 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="8"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+    </row>
+    <row r="11" spans="1:22" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="7"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -873,574 +1081,558 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="8"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="18" t="s">
+      <c r="B12" s="6"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="1"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="6"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="1"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:22" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="1"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:22" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="8"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:22" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="8"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="19" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="8"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="2"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="16" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="8"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="16" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="8"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="8"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="8"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="25.2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="16" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="8"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="16" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="8"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="16" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="8"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="16" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="8"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="8"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="8"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="8"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="8"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="8"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="11"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="28"/>
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" ht="16.8" x14ac:dyDescent="0.4">
@@ -1541,25 +1733,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D12:J14"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C19:F20"/>
-    <mergeCell ref="G19:I20"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E23:K24"/>
-    <mergeCell ref="E25:K26"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E27:K30"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E32:K33"/>
-    <mergeCell ref="E34:K35"/>
-    <mergeCell ref="E36:K37"/>
-    <mergeCell ref="E38:K39"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E40:K43"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E31:J32"/>
+    <mergeCell ref="E33:J34"/>
+    <mergeCell ref="C15:J17"/>
+    <mergeCell ref="G18:J19"/>
+    <mergeCell ref="C18:F19"/>
+    <mergeCell ref="E22:J23"/>
+    <mergeCell ref="E24:J25"/>
+    <mergeCell ref="E35:J36"/>
+    <mergeCell ref="E37:J38"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E39:J43"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E26:J30"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
